--- a/non_newtonian_pQ.xlsx
+++ b/non_newtonian_pQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fluid Mechanic\GeneralCouteeFlow\Newton-Raphson-Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C478150-D094-4533-81D8-C2BCBF2D1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA692EA1-6459-4DCF-B66D-E62480978D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F257D681-BD3A-4289-B10A-8709BE2F97BF}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Q (m^3/s)</t>
-  </si>
-  <si>
     <t>volume flow rate (m^3/s)</t>
   </si>
   <si>
@@ -50,7 +47,10 @@
     <t>Pressure out (Pa)</t>
   </si>
   <si>
-    <t>delP</t>
+    <t>P_in (Pa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delP </t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,16 +441,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -458,615 +458,576 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0000000000000003E-5</v>
+        <v>7.0768000000000002E-8</v>
       </c>
       <c r="C2" s="1">
-        <v>8388.1</v>
+        <v>99.831999999999994</v>
       </c>
       <c r="D2">
-        <v>6.8373999999999997</v>
+        <v>8.4902000000000005E-2</v>
       </c>
       <c r="E2" s="1">
         <f>D2-C2</f>
-        <v>-8381.2626</v>
+        <v>-99.747097999999994</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5.0356999999999999E-5</v>
+        <v>125.89</v>
       </c>
       <c r="B3" s="1">
-        <v>5.0358000000000001E-5</v>
+        <v>9.8258000000000005E-8</v>
       </c>
       <c r="C3" s="1">
-        <v>9849.5</v>
+        <v>125.68</v>
       </c>
       <c r="D3">
-        <v>7.9532999999999996</v>
+        <v>0.10779</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E35" si="0">D3-C3</f>
-        <v>-9841.5467000000008</v>
+        <f t="shared" ref="E3:E32" si="0">D3-C3</f>
+        <v>-125.57221000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6.3396000000000001E-5</v>
+        <v>158.49</v>
       </c>
       <c r="B4" s="1">
-        <v>6.3397000000000003E-5</v>
+        <v>1.3654999999999999E-7</v>
       </c>
       <c r="C4" s="1">
-        <v>11564</v>
+        <v>158.22</v>
       </c>
       <c r="D4">
-        <v>9.2617999999999991</v>
+        <v>0.13544999999999999</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>-11554.7382</v>
+        <v>-158.08455000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7.9809999999999997E-5</v>
+        <v>199.53</v>
       </c>
       <c r="B5" s="1">
-        <v>7.9812000000000001E-5</v>
+        <v>1.8988E-7</v>
       </c>
       <c r="C5" s="1">
-        <v>13573</v>
+        <v>199.18</v>
       </c>
       <c r="D5">
-        <v>10.75</v>
+        <v>0.16991999999999999</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>-13562.25</v>
+        <v>-199.01008000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1.0048E-4</v>
+        <v>251.19</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0048E-4</v>
+        <v>2.6395999999999999E-7</v>
       </c>
       <c r="C6" s="1">
-        <v>15927</v>
+        <v>250.75</v>
       </c>
       <c r="D6">
-        <v>12.413</v>
+        <v>0.21285999999999999</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>-15914.587</v>
+        <v>-250.53713999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1.2648999999999999E-4</v>
+        <v>316.23</v>
       </c>
       <c r="B7" s="1">
-        <v>1.2648999999999999E-4</v>
+        <v>3.6674000000000001E-7</v>
       </c>
       <c r="C7" s="1">
-        <v>18680</v>
+        <v>315.68</v>
       </c>
       <c r="D7">
-        <v>14.252000000000001</v>
+        <v>0.26827000000000001</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>-18665.748</v>
+        <v>-315.41173000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1.5924E-4</v>
+        <v>398.11</v>
       </c>
       <c r="B8" s="1">
-        <v>1.5924E-4</v>
+        <v>5.0938000000000003E-7</v>
       </c>
       <c r="C8" s="1">
-        <v>21895</v>
+        <v>397.42</v>
       </c>
       <c r="D8">
-        <v>16.22</v>
+        <v>0.33866000000000002</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-21878.78</v>
+        <v>-397.08134000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2.0047000000000001E-4</v>
+        <v>501.19</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0048E-4</v>
+        <v>7.0785999999999999E-7</v>
       </c>
       <c r="C9" s="1">
-        <v>25642</v>
+        <v>500.32</v>
       </c>
       <c r="D9">
-        <v>18.231000000000002</v>
+        <v>0.42627999999999999</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>-25623.769</v>
+        <v>-499.89371999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2.5238000000000002E-4</v>
+        <v>630.96</v>
       </c>
       <c r="B10" s="1">
-        <v>2.5239000000000001E-4</v>
+        <v>9.8341999999999989E-7</v>
       </c>
       <c r="C10" s="1">
-        <v>29997</v>
+        <v>629.87</v>
       </c>
       <c r="D10">
-        <v>20.122</v>
+        <v>0.53781999999999996</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>-29976.878000000001</v>
+        <v>-629.33217999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3.1773000000000001E-4</v>
+        <v>794.33</v>
       </c>
       <c r="B11" s="1">
-        <v>3.1773000000000001E-4</v>
+        <v>1.3658999999999999E-6</v>
       </c>
       <c r="C11" s="1">
-        <v>35038</v>
+        <v>792.97</v>
       </c>
       <c r="D11">
-        <v>21.655000000000001</v>
+        <v>0.67840999999999996</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>-35016.345000000001</v>
+        <v>-792.29159000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>1.8985999999999999E-6</v>
       </c>
       <c r="C12" s="1">
-        <v>40842</v>
+        <v>998.28</v>
       </c>
       <c r="D12">
-        <v>22.398</v>
+        <v>0.85087999999999997</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>-40819.601999999999</v>
+        <v>-997.42912000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5.0356999999999995E-4</v>
+        <v>1258.9000000000001</v>
       </c>
       <c r="B13" s="1">
-        <v>5.0356999999999995E-4</v>
+        <v>2.6375000000000002E-6</v>
       </c>
       <c r="C13" s="1">
-        <v>47474</v>
+        <v>1256.8</v>
       </c>
       <c r="D13">
-        <v>21.797000000000001</v>
+        <v>1.0738000000000001</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>-47452.203000000001</v>
+        <v>-1255.7262000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>6.3396000000000004E-4</v>
+        <v>1584.9</v>
       </c>
       <c r="B14" s="1">
-        <v>6.3396000000000004E-4</v>
+        <v>3.6675E-6</v>
       </c>
       <c r="C14" s="1">
-        <v>54971</v>
+        <v>1582.2</v>
       </c>
       <c r="D14" s="1">
-        <v>19.041</v>
+        <v>1.3409</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>-54951.959000000003</v>
+        <v>-1580.8591000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7.9810000000000005E-4</v>
+        <v>1995.3</v>
       </c>
       <c r="B15" s="1">
-        <v>7.9810999999999999E-4</v>
+        <v>5.0916999999999999E-6</v>
       </c>
       <c r="C15" s="1">
-        <v>63315</v>
+        <v>1991.9</v>
       </c>
       <c r="D15" s="1">
-        <v>13.225</v>
+        <v>1.7035</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>-63301.775000000001</v>
+        <v>-1990.1965</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.0047999999999999E-3</v>
-      </c>
-      <c r="B16">
-        <v>1.0047999999999999E-3</v>
+        <v>2511.9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.0756999999999999E-6</v>
       </c>
       <c r="C16">
-        <v>72397</v>
+        <v>2507.6</v>
       </c>
       <c r="D16" s="1">
-        <v>3.5318000000000001</v>
+        <v>2.1427</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>-72393.468200000003</v>
+        <v>-2505.4573</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.2649E-3</v>
-      </c>
-      <c r="B17">
-        <v>1.2649E-3</v>
+        <v>3162.3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.8354000000000007E-6</v>
       </c>
       <c r="C17">
-        <v>81912</v>
+        <v>3156.8</v>
       </c>
       <c r="D17" s="1">
-        <v>-10.193</v>
+        <v>2.6886000000000001</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>-81922.192999999999</v>
+        <v>-3154.1114000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.5923999999999999E-3</v>
-      </c>
-      <c r="B18">
-        <v>1.5923999999999999E-3</v>
+        <v>3981.1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.3668E-5</v>
       </c>
       <c r="C18">
-        <v>91393</v>
+        <v>3974.2</v>
       </c>
       <c r="D18" s="1">
-        <v>-27.446000000000002</v>
+        <v>3.3805000000000001</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>-91420.445999999996</v>
+        <v>-3970.8194999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.0046999999999999E-3</v>
-      </c>
-      <c r="B19">
-        <v>2.0046999999999999E-3</v>
+        <v>5011.8999999999996</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.8992E-5</v>
       </c>
       <c r="C19">
-        <v>99936</v>
+        <v>5003.3</v>
       </c>
       <c r="D19" s="1">
-        <v>-45.28</v>
+        <v>4.2577999999999996</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>-99981.28</v>
+        <v>-4999.0421999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.5238000000000001E-3</v>
-      </c>
-      <c r="B20">
-        <v>2.5238000000000001E-3</v>
+        <v>6309.6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.6401E-5</v>
       </c>
       <c r="C20" s="1">
-        <v>106200</v>
+        <v>6298.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-58.100999999999999</v>
+        <v>5.3395000000000001</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>-106258.101</v>
+        <v>-6293.3604999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3.1773000000000001E-3</v>
-      </c>
-      <c r="B21">
-        <v>3.1771999999999998E-3</v>
+        <v>7943.3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.6739000000000002E-5</v>
       </c>
       <c r="C21" s="1">
-        <v>108440</v>
+        <v>7929.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-54.393000000000001</v>
+        <v>6.6109999999999998</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>-108494.393</v>
+        <v>-7922.8890000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="B22">
-        <v>3.9998999999999998E-3</v>
+        <v>10000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.1051999999999998E-5</v>
       </c>
       <c r="C22" s="1">
-        <v>104540</v>
+        <v>9982.7000000000007</v>
       </c>
       <c r="D22" s="1">
-        <v>-24.460999999999999</v>
+        <v>8.3503000000000007</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>-104564.461</v>
+        <v>-9974.3497000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5.0356999999999997E-3</v>
-      </c>
-      <c r="B23">
-        <v>5.0355E-3</v>
+        <v>12589</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.1100999999999996E-5</v>
       </c>
       <c r="C23">
-        <v>92632</v>
+        <v>12567</v>
       </c>
       <c r="D23" s="1">
-        <v>46.209000000000003</v>
+        <v>10.263</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>-92585.790999999997</v>
+        <v>-12556.736999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6.3395999999999999E-3</v>
-      </c>
-      <c r="B24">
-        <v>6.3394999999999996E-3</v>
+        <v>15849</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.9011000000000005E-5</v>
       </c>
       <c r="C24">
-        <v>71368</v>
+        <v>15821</v>
       </c>
       <c r="D24" s="1">
-        <v>172.33</v>
+        <v>12.669</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>-71195.67</v>
+        <v>-15808.331</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7.9810000000000002E-3</v>
-      </c>
-      <c r="B25">
-        <v>7.9810999999999997E-3</v>
+        <v>19953</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.3808000000000001E-4</v>
       </c>
       <c r="C25">
-        <v>40337</v>
+        <v>19917</v>
       </c>
       <c r="D25" s="1">
-        <v>363.49</v>
+        <v>15.442</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>-39973.51</v>
+        <v>-19901.558000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.0048E-2</v>
-      </c>
-      <c r="B26">
-        <v>1.0048E-2</v>
+        <v>25119</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.9289E-4</v>
       </c>
       <c r="C26">
-        <v>-546.29999999999995</v>
+        <v>25073</v>
       </c>
       <c r="D26" s="1">
-        <v>618.59</v>
+        <v>18.474</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>1164.8899999999999</v>
+        <v>-25054.526000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.2649000000000001E-2</v>
-      </c>
-      <c r="B27">
-        <v>1.2649000000000001E-2</v>
+        <v>31623</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.7023999999999999E-4</v>
       </c>
       <c r="C27">
-        <v>-51509</v>
+        <v>31563</v>
       </c>
       <c r="D27" s="1">
-        <v>952.75</v>
+        <v>21.43</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>52461.75</v>
+        <v>-31541.57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1.5924000000000001E-2</v>
-      </c>
-      <c r="B28">
-        <v>1.5924000000000001E-2</v>
+        <v>39811</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.8052000000000002E-4</v>
       </c>
       <c r="C28" s="1">
-        <v>-114250</v>
+        <v>39731</v>
       </c>
       <c r="D28" s="1">
-        <v>1330.6</v>
+        <v>23.393999999999998</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>115580.6</v>
+        <v>-39707.606</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2.0046999999999999E-2</v>
-      </c>
-      <c r="B29">
-        <v>2.0046999999999999E-2</v>
+        <v>50119</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.3992999999999999E-4</v>
       </c>
       <c r="C29" s="1">
-        <v>-192140</v>
+        <v>50012</v>
       </c>
       <c r="D29">
-        <v>1489.7</v>
+        <v>22.768999999999998</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>193629.7</v>
+        <v>-49989.231</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.5238E-2</v>
-      </c>
-      <c r="B30">
-        <v>2.5238E-2</v>
+        <v>63096</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.7638000000000002E-4</v>
       </c>
       <c r="C30" s="1">
-        <v>-284840</v>
+        <v>62946</v>
       </c>
       <c r="D30" s="1">
-        <v>410.59</v>
+        <v>16.433</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>285250.59000000003</v>
+        <v>-62929.567000000003</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3.1773000000000003E-2</v>
+        <v>79433</v>
       </c>
       <c r="B31">
-        <v>3.1773000000000003E-2</v>
+        <v>1.1527E-3</v>
       </c>
       <c r="C31" s="1">
-        <v>-399890</v>
+        <v>79181</v>
       </c>
       <c r="D31" s="1">
-        <v>-3784.2</v>
+        <v>-3.4836</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>396105.8</v>
+        <v>-79184.483600000007</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.04</v>
+      <c r="A32" s="1">
+        <v>100000</v>
       </c>
       <c r="B32">
-        <v>0.04</v>
+        <v>1.8028E-3</v>
       </c>
       <c r="C32" s="1">
-        <v>-535980</v>
+        <v>99543</v>
       </c>
       <c r="D32" s="1">
-        <v>-12662</v>
+        <v>-35.56</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>523318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5.0356999999999999E-2</v>
-      </c>
-      <c r="B33">
-        <v>5.0356999999999999E-2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>-702170</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-24168</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>678002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6.3395999999999994E-2</v>
-      </c>
-      <c r="B34">
-        <v>6.3396999999999995E-2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-896020</v>
-      </c>
-      <c r="D34" s="1">
-        <v>-42473</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>853547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>7.9810000000000006E-2</v>
-      </c>
-      <c r="B35">
-        <v>7.9866999999999994E-2</v>
-      </c>
-      <c r="C35" s="1">
-        <v>-1103100</v>
-      </c>
-      <c r="D35" s="1">
-        <v>-82721</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1020379</v>
-      </c>
+        <v>-99578.559999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
